--- a/Исходники/2.xlsx
+++ b/Исходники/2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TsvetkovDS\Documents\Оперативная папка\CONCAT_YOUR_EXCELS\Исходники\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389B4D00-BF07-472B-831C-1E6AB220B4EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD47F6C-772D-4FCC-8570-5A4D23A0D68E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>A</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>zxc</t>
   </si>
 </sst>
 </file>
@@ -367,15 +364,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB7B1D3-60C9-4179-BBBC-40937893F248}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -389,7 +386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -403,7 +400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>13</v>
       </c>
@@ -415,11 +412,6 @@
       </c>
       <c r="D3">
         <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">

--- a/Исходники/2.xlsx
+++ b/Исходники/2.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TsvetkovDS\Documents\Оперативная папка\CONCAT_YOUR_EXCELS\Исходники\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD47F6C-772D-4FCC-8570-5A4D23A0D68E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544BB15D-F6F2-4EB0-A162-81238AF108A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист3 (2)" sheetId="4" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId4"/>
+    <sheet name="Лист1 (3)" sheetId="6" r:id="rId1"/>
+    <sheet name="Лист1 (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="Лист3 (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId5"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
   <si>
     <t>A</t>
   </si>
@@ -363,11 +365,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB7B1D3-60C9-4179-BBBC-40937893F248}">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB3F2BC9-FCA0-4573-A560-8A3766B21843}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,6 +390,120 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB4B558-5F97-449F-AA9D-4099346DC351}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB7B1D3-60C9-4179-BBBC-40937893F248}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>9</v>
       </c>
       <c r="B2">
@@ -422,7 +538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -479,7 +595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C727AB-9099-4DF9-B60E-ED78ADD8D7EE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -536,7 +652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDE4816-365B-403A-9DA0-9167120A13ED}">
   <dimension ref="A1:D20"/>
   <sheetViews>
